--- a/target/test-classes/TestData/SignInValidData.xlsx
+++ b/target/test-classes/TestData/SignInValidData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cczf0096\eclipse-workspace\VOIS_Task\src\test\java\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cczf0096\eclipse-workspace\Selenium_Task\src\test\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF3544B-E4FA-4F58-A5BC-1A5DF1E65298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB184D1-7C12-4318-81C7-E5772673DA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t>mohamed022@gmail.com</t>
   </si>
   <si>
-    <t>mohamedalaa</t>
+    <t>mohamedmobarak</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
